--- a/CashFlow/AVTR_cashflow.xlsx
+++ b/CashFlow/AVTR_cashflow.xlsx
@@ -286,19 +286,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2986000000.0</v>
+        <v>-129300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2894000000.0</v>
+        <v>-69700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2144000000.0</v>
+        <v>-43500000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1411100000.0</v>
+        <v>-59300000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>643100000.0</v>
+        <v>-37600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-84100000.0</v>
@@ -368,19 +368,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>73900000.0</v>
+        <v>2591000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>110600000.0</v>
+        <v>2496000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6900000.0</v>
+        <v>1756100000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>30500000.0</v>
+        <v>1191400000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4900000.0</v>
+        <v>548900000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-2400000.0</v>
